--- a/Annex Q/Q5_medicines.xlsx
+++ b/Annex Q/Q5_medicines.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28702"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10610"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bbdaniels/Desktop/SP_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adakwan/Dropbox/TB QUALITY INDIA 2014/-1000 - RESULTS DISSEMINATION/9999 SP Manual/99999 SP MANUAL/Release1.1/Annex Q/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF2BBAAF-2D55-0D4C-A40D-0DD930797150}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25360" windowHeight="15380" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28720" windowHeight="15760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="O5_linking" sheetId="1" r:id="rId1"/>
-    <sheet name="O5_coding" sheetId="2" r:id="rId2"/>
+    <sheet name="Q5_linking" sheetId="1" r:id="rId1"/>
+    <sheet name="Q5_coding" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -2475,7 +2476,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2530,6 +2531,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2797,11 +2801,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F694"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -16687,11 +16691,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B93" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="I7" sqref="I7:I8"/>
